--- a/VersionRecords/Version 5.1.0/版本Bug和特性计划及评审表v5.1.0_极光组.xlsx
+++ b/VersionRecords/Version 5.1.0/版本Bug和特性计划及评审表v5.1.0_极光组.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
   <si>
     <t>No</t>
   </si>
@@ -156,6 +156,30 @@
   </si>
   <si>
     <t>能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>续租功能，蘑菇宝禁止续租</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东acctname含有字母，bs端无法打开房东详情页</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>partnerpc、partnerapp</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>王辉、王祥毅</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕崇新</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -902,7 +926,7 @@
   <dimension ref="A1:V190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1165,23 +1189,55 @@
       <c r="V4" s="32"/>
     </row>
     <row r="5" spans="1:22" s="4" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="14"/>
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="14">
+        <v>42678</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="14">
+        <v>42678</v>
+      </c>
       <c r="K5" s="12"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="23"/>
+      <c r="L5" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" s="14">
+        <v>42681</v>
+      </c>
+      <c r="Q5" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="R5" s="21"/>
       <c r="S5" s="21"/>
       <c r="T5" s="21"/>
@@ -1189,23 +1245,55 @@
       <c r="V5" s="32"/>
     </row>
     <row r="6" spans="1:22" s="5" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="14"/>
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="14">
+        <v>42678</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="14">
+        <v>42678</v>
+      </c>
       <c r="K6" s="13"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="23"/>
+      <c r="L6" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="14">
+        <v>42681</v>
+      </c>
+      <c r="Q6" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="R6" s="26"/>
       <c r="S6" s="26"/>
       <c r="T6" s="26"/>

--- a/VersionRecords/Version 5.1.0/版本Bug和特性计划及评审表v5.1.0_极光组.xlsx
+++ b/VersionRecords/Version 5.1.0/版本Bug和特性计划及评审表v5.1.0_极光组.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="45">
   <si>
     <t>No</t>
   </si>
@@ -96,10 +96,6 @@
   </si>
   <si>
     <t>重要</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fix Bug</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -926,7 +922,7 @@
   <dimension ref="A1:V190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1028,16 +1024,16 @@
         <v>24</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>25</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>26</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>21</v>
@@ -1053,22 +1049,22 @@
       </c>
       <c r="K2" s="12"/>
       <c r="L2" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M2" s="12" t="s">
         <v>20</v>
       </c>
       <c r="N2" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O2" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P2" s="14">
         <v>42681</v>
       </c>
       <c r="Q2" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R2" s="24"/>
       <c r="S2" s="24"/>
@@ -1084,16 +1080,16 @@
         <v>24</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>31</v>
-      </c>
       <c r="F3" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>21</v>
@@ -1109,22 +1105,22 @@
       </c>
       <c r="K3" s="12"/>
       <c r="L3" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M3" s="12" t="s">
         <v>20</v>
       </c>
       <c r="N3" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O3" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P3" s="14">
         <v>42681</v>
       </c>
       <c r="Q3" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R3" s="21"/>
       <c r="S3" s="21"/>
@@ -1140,16 +1136,16 @@
         <v>24</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>21</v>
@@ -1165,22 +1161,22 @@
       </c>
       <c r="K4" s="12"/>
       <c r="L4" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M4" s="12" t="s">
         <v>20</v>
       </c>
       <c r="N4" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O4" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P4" s="14">
         <v>42681</v>
       </c>
       <c r="Q4" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R4" s="21"/>
       <c r="S4" s="21"/>
@@ -1196,16 +1192,16 @@
         <v>24</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>21</v>
@@ -1221,22 +1217,22 @@
       </c>
       <c r="K5" s="12"/>
       <c r="L5" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M5" s="12" t="s">
         <v>20</v>
       </c>
       <c r="N5" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O5" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P5" s="14">
         <v>42681</v>
       </c>
       <c r="Q5" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R5" s="21"/>
       <c r="S5" s="21"/>
@@ -1252,16 +1248,16 @@
         <v>24</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>42</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>21</v>
@@ -1277,22 +1273,22 @@
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M6" s="12" t="s">
         <v>20</v>
       </c>
       <c r="N6" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O6" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P6" s="14">
         <v>42681</v>
       </c>
       <c r="Q6" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R6" s="26"/>
       <c r="S6" s="26"/>
